--- a/resource/文法汇总N3-N1.xlsx
+++ b/resource/文法汇总N3-N1.xlsx
@@ -27452,8 +27452,8 @@
   <sheetPr/>
   <dimension ref="A1:F555"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="C552" sqref="C552:C555"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119:C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>

--- a/resource/文法汇总N3-N1.xlsx
+++ b/resource/文法汇总N3-N1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14540" firstSheet="3"/>
+    <workbookView windowWidth="17740" windowHeight="14240" firstSheet="3"/>
   </bookViews>
   <sheets>
     <sheet name="N１" sheetId="1" r:id="rId1"/>
@@ -898,14 +898,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>怪盗（かいとう）と呼ばれた男の犯行の手口（てぐち）は大胆にして、</t>
+      <t>怪盗（かいとう）と呼ばれた男の犯行の手口は大胆（だいたん）にして、</t>
     </r>
     <r>
       <rPr>
@@ -926,7 +919,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>繊細（せんさい）だった。</t>
+      <t>繊細だった。</t>
     </r>
   </si>
   <si>
@@ -998,13 +991,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>N・V</t>
     </r>
     <r>
@@ -27452,8 +27438,8 @@
   <sheetPr/>
   <dimension ref="A1:F555"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119:C122"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" topLeftCell="D79" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -27841,52 +27827,52 @@
       <c r="F30" s="271"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="253">
+      <c r="A31" s="142">
         <v>8</v>
       </c>
-      <c r="B31" s="254" t="s">
+      <c r="B31" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="254" t="s">
+      <c r="C31" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="254" t="s">
+      <c r="D31" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="267" t="s">
+      <c r="E31" s="272" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="268"/>
+      <c r="F31" s="173"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="257"/>
-      <c r="B32" s="258"/>
-      <c r="C32" s="258"/>
-      <c r="D32" s="258"/>
-      <c r="E32" t="s">
+      <c r="A32" s="144"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="273" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="269"/>
+      <c r="F32" s="175"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="257"/>
-      <c r="B33" s="258"/>
-      <c r="C33" s="258"/>
-      <c r="D33" s="258"/>
-      <c r="E33" t="s">
+      <c r="A33" s="144"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="273" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="269"/>
+      <c r="F33" s="175"/>
     </row>
     <row r="34" ht="18.35" spans="1:6">
-      <c r="A34" s="261"/>
-      <c r="B34" s="262"/>
-      <c r="C34" s="262"/>
-      <c r="D34" s="262"/>
-      <c r="E34" s="270" t="s">
+      <c r="A34" s="147"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="274" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="271"/>
+      <c r="F34" s="177"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="253">
@@ -27927,52 +27913,52 @@
       <c r="F37" s="271"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="253">
+      <c r="A38" s="142">
         <v>10</v>
       </c>
-      <c r="B38" s="254" t="s">
+      <c r="B38" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="254" t="s">
+      <c r="C38" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="254" t="s">
+      <c r="D38" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="267" t="s">
+      <c r="E38" s="272" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="268"/>
+      <c r="F38" s="173"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="257"/>
-      <c r="B39" s="258"/>
-      <c r="C39" s="258"/>
-      <c r="D39" s="258"/>
-      <c r="E39" t="s">
+      <c r="A39" s="144"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="273" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="269"/>
+      <c r="F39" s="175"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="257"/>
-      <c r="B40" s="258"/>
-      <c r="C40" s="258"/>
-      <c r="D40" s="258"/>
-      <c r="E40" t="s">
+      <c r="A40" s="144"/>
+      <c r="B40" s="145"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="273" t="s">
         <v>78</v>
       </c>
-      <c r="F40" s="269"/>
+      <c r="F40" s="175"/>
     </row>
     <row r="41" ht="18.35" spans="1:6">
-      <c r="A41" s="261"/>
-      <c r="B41" s="262"/>
-      <c r="C41" s="262"/>
-      <c r="D41" s="262"/>
-      <c r="E41" s="270" t="s">
+      <c r="A41" s="147"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="274" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="271"/>
+      <c r="F41" s="177"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="253">
@@ -28760,7 +28746,7 @@
       </c>
       <c r="F106" s="269"/>
     </row>
-    <row r="107" ht="18.35" spans="1:6">
+    <row r="107" spans="1:6">
       <c r="A107" s="261"/>
       <c r="B107" s="262"/>
       <c r="C107" s="283"/>
